--- a/PM/Καταστατικός Χάρτης.xlsx
+++ b/PM/Καταστατικός Χάρτης.xlsx
@@ -16,15 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Τίτλος έργου</t>
   </si>
   <si>
     <t>Project Manager</t>
-  </si>
-  <si>
-    <t>Associate Project Manager</t>
   </si>
   <si>
     <t>Σκοπός</t>
@@ -113,9 +110,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -123,6 +117,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -418,114 +415,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="3" customWidth="1"/>
-    <col min="3" max="3" width="41" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="25.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="25.5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="25.5">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="151.5" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="25.5">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="25.5">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" ht="25.5">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" ht="25.5">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" ht="25.5">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" ht="25.5">
-      <c r="A9" s="4"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" ht="75" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" ht="25.5">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" ht="25.5">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" ht="25.5">
       <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" ht="25.5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2"/>
+      <c r="C12" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A11:A13"/>
+  <mergeCells count="6">
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A4:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/PM/Καταστατικός Χάρτης.xlsx
+++ b/PM/Καταστατικός Χάρτης.xlsx
@@ -24,9 +24,6 @@
     <t>Project Manager</t>
   </si>
   <si>
-    <t>Σκοπός</t>
-  </si>
-  <si>
     <t>Τι έχουμε</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>Ομάδα έργου</t>
+  </si>
+  <si>
+    <t>Φυσικό αντικείμενο (scope)</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -445,14 +445,14 @@
     </row>
     <row r="3" spans="1:3" ht="151.5" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="25.5">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="1"/>
@@ -479,31 +479,31 @@
     </row>
     <row r="9" spans="1:3" ht="75" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" ht="25.5">
       <c r="A10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" ht="25.5">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" ht="25.5">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1"/>
     </row>
